--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="172">
   <si>
     <t>Player</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Saddiq Bey</t>
   </si>
   <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
     <t>Jordan Clarkson</t>
   </si>
   <si>
+    <t>Noah Clowney</t>
+  </si>
+  <si>
     <t>Isaiah Collier</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Seth Curry</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
     <t>Paul George</t>
   </si>
   <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
     <t>Rudy Gobert</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
-    <t>Sam Hauser</t>
+    <t>Jordan Hawkins</t>
   </si>
   <si>
     <t>Taylor Hendricks</t>
@@ -157,6 +157,9 @@
     <t>Isaiah Jackson</t>
   </si>
   <si>
+    <t>Jaime Jaquez</t>
+  </si>
+  <si>
     <t>DaQuan Jeffries</t>
   </si>
   <si>
@@ -187,9 +190,6 @@
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
     <t>Zach LaVine</t>
   </si>
   <si>
@@ -199,15 +199,15 @@
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
     <t>Seth Lundy</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Jaylen Martin</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
     <t>Aaron Nesmith</t>
   </si>
   <si>
-    <t>Onyeka Okongwu</t>
-  </si>
-  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Nick Richards</t>
   </si>
   <si>
-    <t>Duncan Robinson</t>
-  </si>
-  <si>
     <t>Orlando Robinson</t>
   </si>
   <si>
@@ -313,21 +307,24 @@
     <t>Devin Vassell</t>
   </si>
   <si>
+    <t>Dean Wade</t>
+  </si>
+  <si>
     <t>Trendon Watford</t>
   </si>
   <si>
     <t>Andrew Wiggins</t>
   </si>
   <si>
+    <t>Vince Williams</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Patrick Williams</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Vince Williams</t>
-  </si>
-  <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
@@ -403,39 +400,39 @@
     <t>GS</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>CHA</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>DET</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
@@ -511,22 +508,19 @@
     <t>Groin</t>
   </si>
   <si>
+    <t>Lower Body</t>
+  </si>
+  <si>
+    <t>Concussion</t>
+  </si>
+  <si>
+    <t>Pelvis</t>
+  </si>
+  <si>
+    <t>Not Injury Related</t>
+  </si>
+  <si>
     <t>Personal</t>
-  </si>
-  <si>
-    <t>Lower Body</t>
-  </si>
-  <si>
-    <t>Concussion</t>
-  </si>
-  <si>
-    <t>Toe</t>
-  </si>
-  <si>
-    <t>Pelvis</t>
-  </si>
-  <si>
-    <t>Not Injury Related</t>
   </si>
   <si>
     <t>Out</t>
@@ -893,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -938,16 +932,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -955,16 +949,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -972,16 +966,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -989,16 +983,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1006,16 +1000,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1023,16 +1017,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1040,16 +1034,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1057,16 +1051,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1074,16 +1068,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1091,16 +1085,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1108,16 +1102,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1125,16 +1119,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1142,16 +1136,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1162,13 +1156,13 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1176,7 +1170,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>142</v>
@@ -1185,7 +1179,7 @@
         <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1193,16 +1187,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1210,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
         <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1227,16 +1221,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
         <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1244,16 +1238,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
         <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1267,10 +1261,10 @@
         <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1278,16 +1272,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1295,16 +1289,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1312,16 +1306,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1329,16 +1323,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
         <v>143</v>
       </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1346,16 +1340,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1363,16 +1357,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1380,16 +1374,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1397,16 +1391,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1414,16 +1408,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1431,16 +1425,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1448,16 +1442,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1465,16 +1459,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1482,16 +1476,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1499,16 +1493,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1516,16 +1510,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1533,16 +1527,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1550,16 +1544,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1567,16 +1561,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1584,16 +1578,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1601,16 +1595,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1618,16 +1612,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1635,16 +1629,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1655,13 +1649,13 @@
         <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1678,7 +1672,7 @@
         <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1686,16 +1680,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1703,16 +1697,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1720,16 +1714,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1737,16 +1731,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1754,16 +1748,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1771,16 +1765,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1788,16 +1782,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
         <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1805,16 +1799,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
         <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1822,16 +1816,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1839,16 +1833,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1856,16 +1850,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1873,16 +1867,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1890,16 +1884,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1907,16 +1901,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1924,16 +1918,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1941,16 +1935,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1958,16 +1952,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1975,16 +1969,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1992,16 +1986,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2009,16 +2003,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2026,16 +2020,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2043,16 +2037,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2060,16 +2054,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2077,16 +2071,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2094,16 +2088,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2111,16 +2105,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2128,16 +2122,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2145,16 +2139,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2162,16 +2156,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2179,16 +2173,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2196,16 +2190,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2213,16 +2207,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2230,16 +2224,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2247,16 +2241,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2264,16 +2258,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2281,16 +2275,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2298,16 +2292,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
         <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2315,16 +2309,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2332,16 +2326,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2349,16 +2343,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
         <v>141</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2366,16 +2360,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2383,16 +2377,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2400,16 +2394,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C89" t="s">
         <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2417,16 +2411,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2434,16 +2428,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
         <v>145</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2451,16 +2445,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2468,16 +2462,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2485,16 +2479,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2502,16 +2496,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2519,16 +2513,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2536,16 +2530,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D97" t="s">
         <v>158</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2553,16 +2547,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2570,16 +2564,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
         <v>141</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2587,16 +2581,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D100" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2604,16 +2598,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2621,16 +2615,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2638,16 +2632,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
         <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2655,16 +2649,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2672,16 +2666,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2689,33 +2683,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" t="s">
-        <v>165</v>
-      </c>
-      <c r="E107" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="158">
   <si>
     <t>Player</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Precious Achiuwa</t>
   </si>
   <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -61,21 +58,18 @@
     <t>Emoni Bates</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Bojan Bogdanovic</t>
-  </si>
-  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
@@ -91,12 +85,12 @@
     <t>Vlatko Cancar</t>
   </si>
   <si>
+    <t>Wendell Carter</t>
+  </si>
+  <si>
     <t>Devin Carter</t>
   </si>
   <si>
-    <t>Wendell Carter</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
@@ -106,12 +100,6 @@
     <t>Isaiah Collier</t>
   </si>
   <si>
-    <t>Pat Connaughton</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
@@ -121,15 +109,6 @@
     <t>Dante Exum</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
@@ -151,24 +130,24 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
     <t>GG Jackson</t>
   </si>
   <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Jaime Jaquez</t>
   </si>
   <si>
     <t>DaQuan Jeffries</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
     <t>Tre Jones</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
     <t>Luke Kennard</t>
   </si>
   <si>
@@ -199,15 +178,18 @@
     <t>Caris LeVert</t>
   </si>
   <si>
+    <t>Dereck Lively</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
     <t>Seth Lundy</t>
   </si>
   <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Jaylen Martin</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Brandon Miller</t>
-  </si>
-  <si>
     <t>Trey Murphy</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -244,40 +220,37 @@
     <t>Cameron Payne</t>
   </si>
   <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>Nick Richards</t>
   </si>
   <si>
+    <t>Mitchell Robinson</t>
+  </si>
+  <si>
     <t>Orlando Robinson</t>
   </si>
   <si>
-    <t>Mitchell Robinson</t>
-  </si>
-  <si>
-    <t>D'Angelo Russell</t>
+    <t>Shaedon Sharpe</t>
   </si>
   <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
+    <t>Jeremy Sochan</t>
   </si>
   <si>
     <t>Cam Spencer</t>
@@ -313,27 +286,18 @@
     <t>Trendon Watford</t>
   </si>
   <si>
-    <t>Andrew Wiggins</t>
+    <t>Mark Williams</t>
   </si>
   <si>
     <t>Vince Williams</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
     <t>Kenrich Williams</t>
   </si>
   <si>
     <t>Jaylin Williams</t>
   </si>
   <si>
-    <t>Robert Williams</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -343,15 +307,15 @@
     <t>Christian Wood</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
     <t>NY</t>
   </si>
   <si>
-    <t>HOU</t>
-  </si>
-  <si>
     <t>MIL</t>
   </si>
   <si>
@@ -376,15 +340,12 @@
     <t>CLE</t>
   </si>
   <si>
-    <t>PHO</t>
+    <t>BKN</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>BKN</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
@@ -397,42 +358,39 @@
     <t>UTA</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
     <t>GS</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
@@ -448,33 +406,33 @@
     <t>Hamstring</t>
   </si>
   <si>
+    <t>Thigh</t>
+  </si>
+  <si>
+    <t>Illness</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
     <t>Knee</t>
   </si>
   <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>Orbital</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Thumb</t>
+  </si>
+  <si>
     <t>Hip</t>
   </si>
   <si>
-    <t>Illness</t>
-  </si>
-  <si>
-    <t>Wrist</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>Orbital</t>
-  </si>
-  <si>
-    <t>Elbow</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Thumb</t>
-  </si>
-  <si>
     <t>Shoulder</t>
   </si>
   <si>
@@ -484,6 +442,9 @@
     <t>Heel</t>
   </si>
   <si>
+    <t>Calf</t>
+  </si>
+  <si>
     <t>Hand</t>
   </si>
   <si>
@@ -496,19 +457,13 @@
     <t>Achilles</t>
   </si>
   <si>
-    <t>Calf</t>
-  </si>
-  <si>
     <t>Quadriceps</t>
   </si>
   <si>
-    <t>Thigh</t>
-  </si>
-  <si>
     <t>Groin</t>
   </si>
   <si>
-    <t>Lower Body</t>
+    <t>Undisclosed</t>
   </si>
   <si>
     <t>Concussion</t>
@@ -518,6 +473,9 @@
   </si>
   <si>
     <t>Not Injury Related</t>
+  </si>
+  <si>
+    <t>Ribs</t>
   </si>
   <si>
     <t>Personal</t>
@@ -887,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,16 +873,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -932,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -949,16 +907,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -966,16 +924,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -983,16 +941,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1000,16 +958,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1017,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1034,16 +992,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1051,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1068,16 +1026,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1085,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1102,16 +1060,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1119,16 +1077,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1136,16 +1094,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1153,16 +1111,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1170,16 +1128,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1187,16 +1145,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1204,16 +1162,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1221,16 +1179,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1238,16 +1196,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1255,16 +1213,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1272,16 +1230,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1289,16 +1247,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1306,16 +1264,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1323,16 +1281,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
-        <v>142</v>
-      </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1340,16 +1298,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1357,16 +1315,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
         <v>142</v>
       </c>
-      <c r="D28" t="s">
-        <v>154</v>
-      </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1374,16 +1332,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1391,16 +1349,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1408,16 +1366,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1425,16 +1383,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1442,16 +1400,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1459,16 +1417,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1476,16 +1434,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1493,16 +1451,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1510,16 +1468,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1527,16 +1485,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1544,16 +1502,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1561,16 +1519,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1578,16 +1536,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1595,16 +1553,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1612,16 +1570,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1629,16 +1587,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1646,16 +1604,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1663,16 +1621,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1680,16 +1638,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1697,16 +1655,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1714,16 +1672,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1731,16 +1689,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1748,16 +1706,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1765,16 +1723,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1782,16 +1740,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1802,13 +1760,13 @@
         <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1816,16 +1774,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1833,16 +1791,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1850,16 +1808,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
         <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1867,16 +1825,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1884,16 +1842,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1901,16 +1859,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1918,16 +1876,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1935,16 +1893,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1952,16 +1910,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1969,16 +1927,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1986,16 +1944,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2003,16 +1961,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2020,16 +1978,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2037,16 +1995,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2054,16 +2012,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2071,16 +2029,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2088,16 +2046,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2105,16 +2063,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2122,16 +2080,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2139,16 +2097,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2156,16 +2114,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2173,16 +2131,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
         <v>140</v>
       </c>
-      <c r="D76" t="s">
-        <v>153</v>
-      </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2190,16 +2148,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
         <v>140</v>
       </c>
-      <c r="D77" t="s">
-        <v>144</v>
-      </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2207,16 +2165,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2224,16 +2182,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2241,16 +2199,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2258,16 +2216,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2275,16 +2233,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2292,16 +2250,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2309,16 +2267,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2326,16 +2284,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2343,16 +2301,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2360,16 +2318,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2377,16 +2335,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2394,16 +2352,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2411,16 +2369,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2428,16 +2386,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2445,16 +2403,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2462,16 +2420,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2479,16 +2437,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2496,203 +2454,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" t="s">
-        <v>141</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" t="s">
-        <v>141</v>
-      </c>
-      <c r="D99" t="s">
-        <v>153</v>
-      </c>
-      <c r="E99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" t="s">
-        <v>140</v>
-      </c>
-      <c r="D102" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D104" t="s">
-        <v>159</v>
-      </c>
-      <c r="E104" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" t="s">
-        <v>140</v>
-      </c>
-      <c r="D105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" t="s">
-        <v>140</v>
-      </c>
-      <c r="D106" t="s">
-        <v>168</v>
-      </c>
-      <c r="E106" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="172">
   <si>
     <t>Player</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Precious Achiuwa</t>
   </si>
   <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>Emoni Bates</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>MarJon Beauchamp</t>
   </si>
   <si>
@@ -73,24 +79,27 @@
     <t>Malcolm Brogdon</t>
   </si>
   <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Jaylen Brown</t>
+  </si>
+  <si>
     <t>Bruce Brown</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Kobe Bufkin</t>
   </si>
   <si>
     <t>Vlatko Cancar</t>
   </si>
   <si>
+    <t>Devin Carter</t>
+  </si>
+  <si>
     <t>Wendell Carter</t>
   </si>
   <si>
-    <t>Devin Carter</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
@@ -103,12 +112,21 @@
     <t>Anthony Davis</t>
   </si>
   <si>
+    <t>Tari Eason</t>
+  </si>
+  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
     <t>Dante Exum</t>
   </si>
   <si>
+    <t>Paul George</t>
+  </si>
+  <si>
+    <t>Josh Giddey</t>
+  </si>
+  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
@@ -157,9 +175,6 @@
     <t>Bobi Klintman</t>
   </si>
   <si>
-    <t>Christian Koloko</t>
-  </si>
-  <si>
     <t>John Konchar</t>
   </si>
   <si>
@@ -190,6 +205,9 @@
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Cody Martin</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -211,6 +229,9 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -220,15 +241,15 @@
     <t>Cameron Payne</t>
   </si>
   <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
     <t>Nick Richards</t>
   </si>
   <si>
@@ -238,18 +259,24 @@
     <t>Orlando Robinson</t>
   </si>
   <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Day'Ron Sharpe</t>
+  </si>
+  <si>
     <t>Shaedon Sharpe</t>
   </si>
   <si>
-    <t>Day'Ron Sharpe</t>
-  </si>
-  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
     <t>Marcus Smart</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
@@ -283,9 +310,15 @@
     <t>Dean Wade</t>
   </si>
   <si>
+    <t>P.J. Washington</t>
+  </si>
+  <si>
     <t>Trendon Watford</t>
   </si>
   <si>
+    <t>Patrick Williams</t>
+  </si>
+  <si>
     <t>Mark Williams</t>
   </si>
   <si>
@@ -316,6 +349,9 @@
     <t>NY</t>
   </si>
   <si>
+    <t>HOU</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
@@ -340,6 +376,9 @@
     <t>CLE</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
     <t>BKN</t>
   </si>
   <si>
@@ -406,6 +445,9 @@
     <t>Hamstring</t>
   </si>
   <si>
+    <t>Knee</t>
+  </si>
+  <si>
     <t>Thigh</t>
   </si>
   <si>
@@ -415,15 +457,15 @@
     <t>Wrist</t>
   </si>
   <si>
-    <t>Knee</t>
-  </si>
-  <si>
     <t>Oblique</t>
   </si>
   <si>
     <t>Orbital</t>
   </si>
   <si>
+    <t>Elbow</t>
+  </si>
+  <si>
     <t>Foot</t>
   </si>
   <si>
@@ -442,6 +484,9 @@
     <t>Heel</t>
   </si>
   <si>
+    <t>Suspension</t>
+  </si>
+  <si>
     <t>Calf</t>
   </si>
   <si>
@@ -463,16 +508,13 @@
     <t>Groin</t>
   </si>
   <si>
-    <t>Undisclosed</t>
+    <t>Not Injury Related</t>
   </si>
   <si>
     <t>Concussion</t>
   </si>
   <si>
     <t>Pelvis</t>
-  </si>
-  <si>
-    <t>Not Injury Related</t>
   </si>
   <si>
     <t>Ribs</t>
@@ -845,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -890,16 +932,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -907,16 +949,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -924,16 +966,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -941,16 +983,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -958,16 +1000,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -975,16 +1017,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -992,16 +1034,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1009,16 +1051,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1026,16 +1068,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1043,16 +1085,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1060,16 +1102,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1077,16 +1119,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1094,16 +1136,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1111,16 +1153,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1128,16 +1170,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1145,16 +1187,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1162,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1179,16 +1221,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1196,16 +1238,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1213,16 +1255,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1230,16 +1272,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1247,16 +1289,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1264,16 +1306,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1281,16 +1323,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1298,16 +1340,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1315,16 +1357,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1332,16 +1374,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1349,16 +1391,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1366,16 +1408,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1383,16 +1425,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1400,16 +1442,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1417,16 +1459,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1434,16 +1476,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1451,16 +1493,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1468,16 +1510,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1485,16 +1527,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1502,16 +1544,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1522,13 +1564,13 @@
         <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1536,16 +1578,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1553,16 +1595,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1570,16 +1612,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1587,16 +1629,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1604,16 +1646,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1621,16 +1663,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1638,16 +1680,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1655,16 +1697,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1672,16 +1714,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1689,16 +1731,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1706,16 +1748,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1723,16 +1765,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1740,16 +1782,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1757,16 +1799,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1774,16 +1816,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1791,16 +1833,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1808,16 +1850,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1825,16 +1867,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1842,16 +1884,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1859,16 +1901,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1876,16 +1918,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1893,16 +1935,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1910,16 +1952,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1927,16 +1969,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1944,16 +1986,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1961,16 +2003,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1978,16 +2020,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1995,16 +2037,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2012,16 +2054,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2029,16 +2071,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2046,16 +2088,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2063,16 +2105,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2080,16 +2122,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2097,16 +2139,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2114,16 +2156,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2131,16 +2173,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2148,16 +2190,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2165,16 +2207,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2182,16 +2224,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2199,16 +2241,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2216,16 +2258,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2233,16 +2275,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2253,13 +2295,13 @@
         <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2267,16 +2309,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2284,16 +2326,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2301,16 +2343,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2318,16 +2360,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2335,16 +2377,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2352,16 +2394,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2369,16 +2411,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2386,16 +2428,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2403,16 +2445,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2420,16 +2462,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2437,16 +2479,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2454,16 +2496,203 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" t="s">
+        <v>167</v>
+      </c>
+      <c r="E105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="C95" t="s">
-        <v>126</v>
-      </c>
-      <c r="D95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E95" t="s">
-        <v>156</v>
+      <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
   <si>
     <t>Player</t>
   </si>
@@ -61,45 +61,36 @@
     <t>Emoni Bates</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
-    <t>MarJon Beauchamp</t>
-  </si>
-  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
     <t>Bojan Bogdanovic</t>
   </si>
   <si>
-    <t>Bogdan Bogdanovic</t>
-  </si>
-  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Dillon Brooks</t>
+    <t>Bruce Brown</t>
   </si>
   <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
-    <t>Bruce Brown</t>
-  </si>
-  <si>
     <t>Kobe Bufkin</t>
   </si>
   <si>
     <t>Vlatko Cancar</t>
   </si>
   <si>
+    <t>Wendell Carter</t>
+  </si>
+  <si>
     <t>Devin Carter</t>
   </si>
   <si>
-    <t>Wendell Carter</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
@@ -112,7 +103,10 @@
     <t>Anthony Davis</t>
   </si>
   <si>
-    <t>Tari Eason</t>
+    <t>Ryan Dunn</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
   </si>
   <si>
     <t>Joel Embiid</t>
@@ -121,39 +115,30 @@
     <t>Dante Exum</t>
   </si>
   <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>Josh Giddey</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
-    <t>Jordan Hawkins</t>
-  </si>
-  <si>
     <t>Taylor Hendricks</t>
   </si>
   <si>
     <t>DaRon Holmes</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>GG Jackson</t>
+  </si>
+  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
-    <t>GG Jackson</t>
-  </si>
-  <si>
     <t>Jaime Jaquez</t>
   </si>
   <si>
@@ -166,18 +151,21 @@
     <t>Tre Jones</t>
   </si>
   <si>
-    <t>Luke Kennard</t>
-  </si>
-  <si>
     <t>Maxi Kleber</t>
   </si>
   <si>
     <t>Bobi Klintman</t>
   </si>
   <si>
+    <t>Dalton Knecht</t>
+  </si>
+  <si>
     <t>John Konchar</t>
   </si>
   <si>
+    <t>Luke Kornet</t>
+  </si>
+  <si>
     <t>Vit Krejci</t>
   </si>
   <si>
@@ -190,9 +178,6 @@
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>Caris LeVert</t>
-  </si>
-  <si>
     <t>Dereck Lively</t>
   </si>
   <si>
@@ -205,7 +190,7 @@
     <t>Lauri Markkanen</t>
   </si>
   <si>
-    <t>Cody Martin</t>
+    <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>CJ McCollum</t>
@@ -220,6 +205,12 @@
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Jonathan Mogbo</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
     <t>Trey Murphy</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>Jamal Murray</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -241,15 +229,15 @@
     <t>Cameron Payne</t>
   </si>
   <si>
+    <t>Brandin Podziemski</t>
+  </si>
+  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
     <t>Immanuel Quickley</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>Nick Richards</t>
   </si>
   <si>
@@ -259,24 +247,18 @@
     <t>Orlando Robinson</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
+    <t>Shaedon Sharpe</t>
   </si>
   <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
     <t>Ben Simmons</t>
   </si>
   <si>
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
@@ -286,6 +268,9 @@
     <t>Max Strus</t>
   </si>
   <si>
+    <t>Garrett Temple</t>
+  </si>
+  <si>
     <t>Ausar Thompson</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
     <t>P.J. Tucker</t>
   </si>
   <si>
-    <t>Jaylon Tyson</t>
-  </si>
-  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
@@ -310,15 +292,15 @@
     <t>Dean Wade</t>
   </si>
   <si>
+    <t>Ja'Kobe Walter</t>
+  </si>
+  <si>
     <t>P.J. Washington</t>
   </si>
   <si>
     <t>Trendon Watford</t>
   </si>
   <si>
-    <t>Patrick Williams</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
@@ -331,18 +313,12 @@
     <t>Jaylin Williams</t>
   </si>
   <si>
-    <t>Zion Williamson</t>
-  </si>
-  <si>
     <t>James Wiseman</t>
   </si>
   <si>
     <t>Christian Wood</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
@@ -376,28 +352,31 @@
     <t>CLE</t>
   </si>
   <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>LAL</t>
+    <t>DET</t>
   </si>
   <si>
     <t>PHI</t>
@@ -409,24 +388,21 @@
     <t>OKC</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
-    <t>DET</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
@@ -463,9 +439,6 @@
     <t>Orbital</t>
   </si>
   <si>
-    <t>Elbow</t>
-  </si>
-  <si>
     <t>Foot</t>
   </si>
   <si>
@@ -493,22 +466,25 @@
     <t>Hand</t>
   </si>
   <si>
+    <t>Lower Leg</t>
+  </si>
+  <si>
+    <t>Achilles</t>
+  </si>
+  <si>
+    <t>Jaw</t>
+  </si>
+  <si>
+    <t>Quadriceps</t>
+  </si>
+  <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>Not Injury Related</t>
+  </si>
+  <si>
     <t>Back</t>
-  </si>
-  <si>
-    <t>Lower Leg</t>
-  </si>
-  <si>
-    <t>Achilles</t>
-  </si>
-  <si>
-    <t>Quadriceps</t>
-  </si>
-  <si>
-    <t>Groin</t>
-  </si>
-  <si>
-    <t>Not Injury Related</t>
   </si>
   <si>
     <t>Concussion</t>
@@ -887,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,16 +891,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -932,16 +908,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -949,16 +925,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -966,16 +942,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -983,16 +959,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1000,16 +976,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1017,16 +993,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1034,16 +1010,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1051,16 +1027,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1068,16 +1044,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1085,16 +1061,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1105,13 +1081,13 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1122,13 +1098,13 @@
         <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1136,16 +1112,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1153,16 +1129,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1170,16 +1146,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1187,16 +1163,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1204,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1221,16 +1197,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
         <v>141</v>
       </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1238,16 +1214,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1255,16 +1231,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1272,16 +1248,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1289,16 +1265,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1306,16 +1282,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1323,16 +1299,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1340,16 +1316,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1357,16 +1333,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1374,16 +1350,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1391,16 +1367,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1408,16 +1384,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1425,16 +1401,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1442,16 +1418,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1459,16 +1435,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1476,16 +1452,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1493,16 +1469,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
         <v>141</v>
       </c>
-      <c r="D36" t="s">
-        <v>159</v>
-      </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1510,16 +1486,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1527,16 +1503,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1544,16 +1520,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1561,16 +1537,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1578,16 +1554,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1595,16 +1571,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1612,16 +1588,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1629,16 +1605,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1646,16 +1622,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1663,16 +1639,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1680,16 +1656,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1697,16 +1673,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1714,16 +1690,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" t="s">
-        <v>157</v>
-      </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1731,16 +1707,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1751,13 +1727,13 @@
         <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1765,16 +1741,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1782,16 +1758,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1799,16 +1775,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1816,16 +1792,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1833,16 +1809,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1850,16 +1826,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1867,16 +1843,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1884,16 +1860,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1901,16 +1877,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1918,16 +1894,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1935,16 +1911,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1952,16 +1928,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1969,16 +1945,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1986,16 +1962,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2003,16 +1979,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
-        <v>141</v>
-      </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2020,16 +1996,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2037,16 +2013,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2054,16 +2030,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2071,16 +2047,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2088,16 +2064,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2105,16 +2081,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2122,16 +2098,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2139,16 +2115,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2156,16 +2132,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2173,16 +2149,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2190,16 +2166,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2207,16 +2183,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2224,16 +2200,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2241,16 +2217,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2258,16 +2234,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2275,16 +2251,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2292,16 +2268,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2309,16 +2285,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" t="s">
         <v>135</v>
       </c>
-      <c r="C84" t="s">
-        <v>140</v>
-      </c>
-      <c r="D84" t="s">
-        <v>151</v>
-      </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2326,16 +2302,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2343,16 +2319,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2360,16 +2336,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2377,16 +2353,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2394,16 +2370,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2411,16 +2387,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2428,16 +2404,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2445,16 +2421,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2462,16 +2438,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
         <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2479,16 +2455,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2496,16 +2472,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2513,16 +2489,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2530,16 +2506,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2547,152 +2523,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" t="s">
-        <v>140</v>
-      </c>
-      <c r="D99" t="s">
-        <v>160</v>
-      </c>
-      <c r="E99" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" t="s">
-        <v>140</v>
-      </c>
-      <c r="D100" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>131</v>
-      </c>
-      <c r="C102" t="s">
-        <v>140</v>
-      </c>
-      <c r="D102" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" t="s">
-        <v>161</v>
-      </c>
-      <c r="E103" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" t="s">
-        <v>139</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C106" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106" t="s">
-        <v>168</v>
-      </c>
-      <c r="E106" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="168">
   <si>
     <t>Player</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Marvin Bagley</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
     <t>Emoni Bates</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
@@ -70,6 +70,12 @@
     <t>Bojan Bogdanovic</t>
   </si>
   <si>
+    <t>Malaki Branham</t>
+  </si>
+  <si>
+    <t>Miles Bridges</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
@@ -85,19 +91,16 @@
     <t>Vlatko Cancar</t>
   </si>
   <si>
+    <t>Devin Carter</t>
+  </si>
+  <si>
     <t>Wendell Carter</t>
   </si>
   <si>
-    <t>Devin Carter</t>
-  </si>
-  <si>
-    <t>Jordan Clarkson</t>
-  </si>
-  <si>
     <t>Noah Clowney</t>
   </si>
   <si>
-    <t>Isaiah Collier</t>
+    <t>Torrey Craig</t>
   </si>
   <si>
     <t>Anthony Davis</t>
@@ -118,12 +121,21 @@
     <t>Aaron Gordon</t>
   </si>
   <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
     <t>Rui Hachimura</t>
   </si>
   <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
+    <t>Jordan Hawkins</t>
+  </si>
+  <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
     <t>Taylor Hendricks</t>
   </si>
   <si>
@@ -133,12 +145,12 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
     <t>GG Jackson</t>
   </si>
   <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Jaime Jaquez</t>
   </si>
   <si>
@@ -157,9 +169,6 @@
     <t>Bobi Klintman</t>
   </si>
   <si>
-    <t>Dalton Knecht</t>
-  </si>
-  <si>
     <t>John Konchar</t>
   </si>
   <si>
@@ -187,15 +196,15 @@
     <t>Seth Lundy</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
     <t>Kevin McCullar</t>
   </si>
   <si>
@@ -205,6 +214,9 @@
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Brandon Miller</t>
+  </si>
+  <si>
     <t>Jonathan Mogbo</t>
   </si>
   <si>
@@ -220,6 +232,9 @@
     <t>Jamal Murray</t>
   </si>
   <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
@@ -247,15 +262,9 @@
     <t>Orlando Robinson</t>
   </si>
   <si>
-    <t>Shaedon Sharpe</t>
-  </si>
-  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -286,9 +295,6 @@
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Dean Wade</t>
   </si>
   <si>
@@ -301,6 +307,9 @@
     <t>Trendon Watford</t>
   </si>
   <si>
+    <t>Grant Williams</t>
+  </si>
+  <si>
     <t>Mark Williams</t>
   </si>
   <si>
@@ -313,6 +322,9 @@
     <t>Jaylin Williams</t>
   </si>
   <si>
+    <t>Zion Williamson</t>
+  </si>
+  <si>
     <t>James Wiseman</t>
   </si>
   <si>
@@ -328,163 +340,163 @@
     <t>HOU</t>
   </si>
   <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Hamstring</t>
   </si>
   <si>
     <t>Knee</t>
   </si>
   <si>
+    <t>Illness</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>Orbital</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Thumb</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Heel</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Calf</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Lower Leg</t>
+  </si>
+  <si>
+    <t>Achilles</t>
+  </si>
+  <si>
+    <t>Quadriceps</t>
+  </si>
+  <si>
     <t>Thigh</t>
   </si>
   <si>
-    <t>Illness</t>
-  </si>
-  <si>
-    <t>Wrist</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>Orbital</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Thumb</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
-    <t>Ankle</t>
-  </si>
-  <si>
-    <t>Heel</t>
-  </si>
-  <si>
-    <t>Suspension</t>
-  </si>
-  <si>
-    <t>Calf</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Lower Leg</t>
-  </si>
-  <si>
-    <t>Achilles</t>
-  </si>
-  <si>
-    <t>Jaw</t>
-  </si>
-  <si>
-    <t>Quadriceps</t>
-  </si>
-  <si>
     <t>Groin</t>
   </si>
   <si>
     <t>Not Injury Related</t>
-  </si>
-  <si>
-    <t>Back</t>
   </si>
   <si>
     <t>Concussion</t>
@@ -863,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,16 +903,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -908,16 +920,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -925,16 +937,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -942,16 +954,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -959,16 +971,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -976,16 +988,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -993,16 +1005,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1010,16 +1022,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1027,16 +1039,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1044,16 +1056,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1061,16 +1073,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1078,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1095,16 +1107,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1112,16 +1124,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1129,16 +1141,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1146,16 +1158,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1163,16 +1175,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1180,16 +1192,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1197,16 +1209,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1214,16 +1226,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1231,16 +1243,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1248,16 +1260,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1268,13 +1280,13 @@
         <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1282,16 +1294,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1299,16 +1311,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1316,16 +1328,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1333,16 +1345,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1350,16 +1362,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1367,16 +1379,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1384,16 +1396,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1401,16 +1413,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1418,16 +1430,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1435,16 +1447,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1452,16 +1464,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1469,16 +1481,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1486,16 +1498,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1503,16 +1515,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1520,16 +1532,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1537,16 +1549,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1554,16 +1566,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
         <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1571,16 +1583,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1588,16 +1600,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1605,16 +1617,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1622,16 +1634,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1639,16 +1651,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1656,16 +1668,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1673,16 +1685,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1690,16 +1702,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1707,16 +1719,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1724,16 +1736,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1741,16 +1753,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1758,16 +1770,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1775,16 +1787,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1792,16 +1804,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1809,16 +1821,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1826,16 +1838,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1846,13 +1858,13 @@
         <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1860,16 +1872,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1877,16 +1889,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1894,16 +1906,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1911,16 +1923,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1928,16 +1940,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1945,16 +1957,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1962,16 +1974,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1979,16 +1991,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1996,16 +2008,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2013,16 +2025,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2030,16 +2042,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2047,16 +2059,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2064,16 +2076,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2081,16 +2093,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2098,16 +2110,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2115,16 +2127,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2135,13 +2147,13 @@
         <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2149,16 +2161,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2166,16 +2178,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2183,16 +2195,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2200,16 +2212,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2217,16 +2229,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2234,16 +2246,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2251,16 +2263,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2268,16 +2280,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2285,16 +2297,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2302,16 +2314,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2319,16 +2331,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2339,13 +2351,13 @@
         <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2353,16 +2365,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2370,16 +2382,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2387,16 +2399,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2407,13 +2419,13 @@
         <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2424,13 +2436,13 @@
         <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2438,16 +2450,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2455,16 +2467,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2472,16 +2484,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2489,16 +2501,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2506,16 +2518,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E97" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2523,16 +2535,84 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
         <v>131</v>
       </c>
-      <c r="D98" t="s">
-        <v>160</v>
-      </c>
-      <c r="E98" t="s">
-        <v>161</v>
+      <c r="C100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" t="s">
+        <v>156</v>
+      </c>
+      <c r="E100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" t="s">
+        <v>139</v>
+      </c>
+      <c r="E101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="155">
   <si>
     <t>Player</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Precious Achiuwa</t>
   </si>
   <si>
-    <t>Steven Adams</t>
-  </si>
-  <si>
-    <t>Marvin Bagley</t>
-  </si>
-  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>Emoni Bates</t>
   </si>
   <si>
-    <t>Bradley Beal</t>
-  </si>
-  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
@@ -88,24 +79,21 @@
     <t>Kobe Bufkin</t>
   </si>
   <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
     <t>Vlatko Cancar</t>
   </si>
   <si>
+    <t>Wendell Carter</t>
+  </si>
+  <si>
     <t>Devin Carter</t>
   </si>
   <si>
-    <t>Wendell Carter</t>
-  </si>
-  <si>
-    <t>Noah Clowney</t>
-  </si>
-  <si>
     <t>Torrey Craig</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
     <t>Ryan Dunn</t>
   </si>
   <si>
@@ -118,24 +106,18 @@
     <t>Dante Exum</t>
   </si>
   <si>
+    <t>Keyonte George</t>
+  </si>
+  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
-    <t>Draymond Green</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Isaiah Hartenstein</t>
   </si>
   <si>
     <t>Jordan Hawkins</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
     <t>Taylor Hendricks</t>
   </si>
   <si>
@@ -145,12 +127,15 @@
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Jonathan Isaac</t>
+  </si>
+  <si>
+    <t>GG Jackson</t>
+  </si>
+  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
-    <t>GG Jackson</t>
-  </si>
-  <si>
     <t>Jaime Jaquez</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
     <t>Bobi Klintman</t>
   </si>
   <si>
-    <t>John Konchar</t>
-  </si>
-  <si>
     <t>Luke Kornet</t>
   </si>
   <si>
@@ -208,15 +190,9 @@
     <t>Kevin McCullar</t>
   </si>
   <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Brandon Miller</t>
-  </si>
-  <si>
     <t>Jonathan Mogbo</t>
   </si>
   <si>
@@ -229,9 +205,6 @@
     <t>Dejounte Murray</t>
   </si>
   <si>
-    <t>Jamal Murray</t>
-  </si>
-  <si>
     <t>Andrew Nembhard</t>
   </si>
   <si>
@@ -244,9 +217,6 @@
     <t>Cameron Payne</t>
   </si>
   <si>
-    <t>Brandin Podziemski</t>
-  </si>
-  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
@@ -265,9 +235,15 @@
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
@@ -289,13 +265,16 @@
     <t>Nikola Topic</t>
   </si>
   <si>
+    <t>Gary Trent</t>
+  </si>
+  <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Dean Wade</t>
+    <t>Devin Vassell</t>
   </si>
   <si>
     <t>Ja'Kobe Walter</t>
@@ -307,9 +286,6 @@
     <t>Trendon Watford</t>
   </si>
   <si>
-    <t>Grant Williams</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
@@ -337,90 +313,84 @@
     <t>NY</t>
   </si>
   <si>
-    <t>HOU</t>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>CLE</t>
   </si>
   <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>CLE</t>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SAC</t>
   </si>
   <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SAC</t>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>POR</t>
   </si>
   <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -433,42 +403,36 @@
     <t>Hamstring</t>
   </si>
   <si>
+    <t>Wrist</t>
+  </si>
+  <si>
     <t>Knee</t>
   </si>
   <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>Orbital</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Thumb</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
     <t>Illness</t>
   </si>
   <si>
-    <t>Wrist</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>Orbital</t>
-  </si>
-  <si>
-    <t>Elbow</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Ankle</t>
-  </si>
-  <si>
-    <t>Thumb</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
-    <t>Heel</t>
-  </si>
-  <si>
     <t>Suspension</t>
   </si>
   <si>
@@ -487,9 +451,6 @@
     <t>Achilles</t>
   </si>
   <si>
-    <t>Quadriceps</t>
-  </si>
-  <si>
     <t>Thigh</t>
   </si>
   <si>
@@ -499,13 +460,13 @@
     <t>Not Injury Related</t>
   </si>
   <si>
-    <t>Concussion</t>
-  </si>
-  <si>
     <t>Pelvis</t>
   </si>
   <si>
     <t>Ribs</t>
+  </si>
+  <si>
+    <t>Rest</t>
   </si>
   <si>
     <t>Personal</t>
@@ -875,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,16 +864,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -920,16 +881,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -937,16 +898,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -954,16 +915,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -971,16 +932,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -988,16 +949,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1005,16 +966,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1022,16 +983,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1039,16 +1000,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1056,16 +1017,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1076,13 +1037,13 @@
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1090,16 +1051,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1107,16 +1068,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1124,16 +1085,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1141,16 +1102,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1158,16 +1119,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1175,16 +1136,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1192,16 +1153,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1209,16 +1170,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1226,16 +1187,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
         <v>137</v>
       </c>
-      <c r="D21" t="s">
-        <v>146</v>
-      </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1243,16 +1204,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1260,16 +1221,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1277,16 +1238,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1294,16 +1255,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1311,16 +1272,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1328,16 +1289,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1345,16 +1306,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1362,16 +1323,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
         <v>125</v>
       </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1379,16 +1340,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1396,16 +1357,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1413,16 +1374,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1430,16 +1391,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1447,16 +1408,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
         <v>128</v>
       </c>
-      <c r="C34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>153</v>
-      </c>
-      <c r="E34" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1464,16 +1425,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1481,16 +1442,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1498,16 +1459,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1515,16 +1476,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1532,16 +1493,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
         <v>137</v>
       </c>
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1549,16 +1510,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1566,16 +1527,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1583,16 +1544,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
         <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1600,16 +1561,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1617,16 +1578,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1634,16 +1595,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
         <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1651,16 +1612,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1668,16 +1629,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1685,16 +1646,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1702,16 +1663,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1719,16 +1680,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1736,16 +1697,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1753,16 +1714,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1770,16 +1731,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1787,16 +1748,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1804,16 +1765,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1821,16 +1782,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
         <v>136</v>
       </c>
-      <c r="D56" t="s">
-        <v>146</v>
-      </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1838,16 +1799,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
         <v>136</v>
       </c>
-      <c r="D57" t="s">
-        <v>138</v>
-      </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1855,16 +1816,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1872,16 +1833,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1889,16 +1850,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1906,16 +1867,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1923,16 +1884,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1940,16 +1901,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1957,16 +1918,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1974,16 +1935,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
         <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1991,16 +1952,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2008,16 +1969,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2025,16 +1986,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2042,16 +2003,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2059,16 +2020,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2076,16 +2037,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2093,16 +2054,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2110,16 +2071,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2127,16 +2088,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2144,16 +2105,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2161,16 +2122,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2178,16 +2139,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2195,16 +2156,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2212,16 +2173,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2229,16 +2190,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2246,16 +2207,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D81" t="s">
         <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2263,16 +2224,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2280,16 +2241,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2297,16 +2258,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2314,16 +2275,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2331,16 +2292,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2348,16 +2309,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2365,16 +2326,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2382,16 +2343,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2399,16 +2360,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2416,16 +2377,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2433,16 +2394,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2450,16 +2411,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2467,152 +2428,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" t="s">
-        <v>145</v>
-      </c>
-      <c r="E95" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" t="s">
-        <v>137</v>
-      </c>
-      <c r="D96" t="s">
-        <v>155</v>
-      </c>
-      <c r="E96" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" t="s">
-        <v>137</v>
-      </c>
-      <c r="D97" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>129</v>
-      </c>
-      <c r="C99" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" t="s">
-        <v>156</v>
-      </c>
-      <c r="E100" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" t="s">
-        <v>139</v>
-      </c>
-      <c r="E101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" t="s">
-        <v>135</v>
-      </c>
-      <c r="D102" t="s">
-        <v>164</v>
-      </c>
-      <c r="E102" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="166">
   <si>
     <t>Player</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Precious Achiuwa</t>
   </si>
   <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -85,18 +91,33 @@
     <t>Vlatko Cancar</t>
   </si>
   <si>
+    <t>Carlton Carrington</t>
+  </si>
+  <si>
+    <t>Devin Carter</t>
+  </si>
+  <si>
     <t>Wendell Carter</t>
   </si>
   <si>
-    <t>Devin Carter</t>
+    <t>Colin Castleton</t>
   </si>
   <si>
     <t>Torrey Craig</t>
   </si>
   <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
     <t>Ryan Dunn</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
@@ -109,6 +130,9 @@
     <t>Keyonte George</t>
   </si>
   <si>
+    <t>Collin Gillespie</t>
+  </si>
+  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
@@ -118,6 +142,9 @@
     <t>Jordan Hawkins</t>
   </si>
   <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
     <t>Taylor Hendricks</t>
   </si>
   <si>
@@ -130,10 +157,13 @@
     <t>Jonathan Isaac</t>
   </si>
   <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
     <t>GG Jackson</t>
   </si>
   <si>
-    <t>Isaiah Jackson</t>
+    <t>Andre Jackson</t>
   </si>
   <si>
     <t>Jaime Jaquez</t>
@@ -163,24 +193,24 @@
     <t>Kyle Kuzma</t>
   </si>
   <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
     <t>Dereck Lively</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
     <t>Seth Lundy</t>
   </si>
   <si>
+    <t>Tre Mann</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
+    <t>Miles McBride</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -193,9 +223,6 @@
     <t>Khris Middleton</t>
   </si>
   <si>
-    <t>Jonathan Mogbo</t>
-  </si>
-  <si>
     <t>Ja Morant</t>
   </si>
   <si>
@@ -211,6 +238,9 @@
     <t>Aaron Nesmith</t>
   </si>
   <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
@@ -220,7 +250,7 @@
     <t>Kristaps Porzingis</t>
   </si>
   <si>
-    <t>Immanuel Quickley</t>
+    <t>Jason Preston</t>
   </si>
   <si>
     <t>Nick Richards</t>
@@ -232,6 +262,9 @@
     <t>Orlando Robinson</t>
   </si>
   <si>
+    <t>Ryan Rollins</t>
+  </si>
+  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
@@ -241,15 +274,15 @@
     <t>Marcus Smart</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
     <t>Cam Spencer</t>
   </si>
   <si>
+    <t>Jaden Springer</t>
+  </si>
+  <si>
     <t>Max Strus</t>
   </si>
   <si>
@@ -265,6 +298,9 @@
     <t>Nikola Topic</t>
   </si>
   <si>
+    <t>Obi Toppin</t>
+  </si>
+  <si>
     <t>Gary Trent</t>
   </si>
   <si>
@@ -274,9 +310,6 @@
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Devin Vassell</t>
-  </si>
-  <si>
     <t>Ja'Kobe Walter</t>
   </si>
   <si>
@@ -313,6 +346,12 @@
     <t>NY</t>
   </si>
   <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
     <t>CHI</t>
   </si>
   <si>
@@ -358,6 +397,12 @@
     <t>SAC</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>PHO</t>
   </si>
   <si>
@@ -367,9 +412,6 @@
     <t>PHI</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
     <t>UTA</t>
   </si>
   <si>
@@ -382,33 +424,27 @@
     <t>IND</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Hamstring</t>
   </si>
   <si>
+    <t>Knee</t>
+  </si>
+  <si>
     <t>Wrist</t>
   </si>
   <si>
-    <t>Knee</t>
-  </si>
-  <si>
     <t>Oblique</t>
   </si>
   <si>
@@ -433,12 +469,15 @@
     <t>Illness</t>
   </si>
   <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>Calf</t>
+  </si>
+  <si>
     <t>Suspension</t>
   </si>
   <si>
-    <t>Calf</t>
-  </si>
-  <si>
     <t>Hand</t>
   </si>
   <si>
@@ -454,19 +493,13 @@
     <t>Thigh</t>
   </si>
   <si>
-    <t>Groin</t>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>Ribs</t>
   </si>
   <si>
     <t>Not Injury Related</t>
-  </si>
-  <si>
-    <t>Pelvis</t>
-  </si>
-  <si>
-    <t>Ribs</t>
-  </si>
-  <si>
-    <t>Rest</t>
   </si>
   <si>
     <t>Personal</t>
@@ -836,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,16 +897,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -881,16 +914,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -898,16 +931,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -915,16 +948,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -932,16 +965,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -949,16 +982,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -966,16 +999,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -983,16 +1016,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1000,16 +1033,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1017,16 +1050,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1034,16 +1067,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1051,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1068,16 +1101,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1085,16 +1118,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1102,16 +1135,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1119,16 +1152,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1136,16 +1169,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1153,16 +1186,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1170,16 +1203,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1187,16 +1220,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1204,16 +1237,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1221,16 +1254,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1238,16 +1271,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1255,16 +1288,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1272,16 +1305,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1289,16 +1322,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1306,16 +1339,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1323,16 +1356,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1340,16 +1373,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1357,16 +1390,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1374,16 +1407,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1391,16 +1424,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1408,16 +1441,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1425,16 +1458,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1442,16 +1475,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1459,16 +1492,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1476,16 +1509,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1493,16 +1526,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1510,16 +1543,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1527,16 +1560,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1544,16 +1577,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1561,16 +1594,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1578,16 +1611,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1595,16 +1628,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1612,16 +1645,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1629,16 +1662,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1646,16 +1679,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1663,16 +1696,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1680,16 +1713,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1697,16 +1730,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1714,16 +1747,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1731,16 +1764,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1748,16 +1781,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1765,16 +1798,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1782,16 +1815,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1799,16 +1832,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1816,16 +1849,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1833,16 +1866,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1850,16 +1883,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1867,16 +1900,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1884,16 +1917,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1901,16 +1934,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1918,16 +1951,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1935,16 +1968,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1952,16 +1985,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1969,16 +2002,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1986,16 +2019,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2003,16 +2036,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2020,16 +2053,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2037,16 +2070,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2054,16 +2087,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2071,16 +2104,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2088,16 +2121,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2105,16 +2138,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2122,16 +2155,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2139,16 +2172,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2156,16 +2189,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2173,16 +2206,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2190,16 +2223,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2207,16 +2240,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E81" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2224,16 +2257,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2241,16 +2274,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2258,16 +2291,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2275,16 +2308,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E85" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2292,16 +2325,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2309,16 +2342,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E87" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2326,16 +2359,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2343,16 +2376,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2360,16 +2393,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E90" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2377,16 +2410,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2394,16 +2427,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2411,16 +2444,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2428,16 +2461,203 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" t="s">
+        <v>149</v>
+      </c>
+      <c r="E95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" t="s">
+        <v>156</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" t="s">
+        <v>141</v>
+      </c>
+      <c r="E100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="C94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" t="s">
-        <v>152</v>
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" t="s">
+        <v>162</v>
+      </c>
+      <c r="E105" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="154">
   <si>
     <t>Player</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
     <t>Lonzo Ball</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
     <t>Emoni Bates</t>
   </si>
   <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
     <t>Saddiq Bey</t>
   </si>
   <si>
@@ -79,9 +79,6 @@
     <t>Bruce Brown</t>
   </si>
   <si>
-    <t>Jaylen Brown</t>
-  </si>
-  <si>
     <t>Kobe Bufkin</t>
   </si>
   <si>
@@ -100,21 +97,9 @@
     <t>Wendell Carter</t>
   </si>
   <si>
-    <t>Colin Castleton</t>
-  </si>
-  <si>
-    <t>Torrey Craig</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
-    <t>Luka Doncic</t>
-  </si>
-  <si>
-    <t>Ryan Dunn</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
@@ -142,33 +127,24 @@
     <t>Jordan Hawkins</t>
   </si>
   <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
     <t>Taylor Hendricks</t>
   </si>
   <si>
     <t>DaRon Holmes</t>
   </si>
   <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>Jonathan Isaac</t>
-  </si>
-  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>GG Jackson</t>
   </si>
   <si>
-    <t>Andre Jackson</t>
-  </si>
-  <si>
-    <t>Jaime Jaquez</t>
-  </si>
-  <si>
     <t>DaQuan Jeffries</t>
   </si>
   <si>
@@ -178,21 +154,18 @@
     <t>Tre Jones</t>
   </si>
   <si>
-    <t>Maxi Kleber</t>
-  </si>
-  <si>
     <t>Bobi Klintman</t>
   </si>
   <si>
-    <t>Luke Kornet</t>
-  </si>
-  <si>
     <t>Vit Krejci</t>
   </si>
   <si>
     <t>Kyle Kuzma</t>
   </si>
   <si>
+    <t>Zach LaVine</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -202,27 +175,21 @@
     <t>Seth Lundy</t>
   </si>
   <si>
-    <t>Tre Mann</t>
-  </si>
-  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Miles McBride</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
-  </si>
-  <si>
     <t>Kevin McCullar</t>
   </si>
   <si>
     <t>Khris Middleton</t>
   </si>
   <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
     <t>Ja Morant</t>
   </si>
   <si>
@@ -262,15 +229,9 @@
     <t>Orlando Robinson</t>
   </si>
   <si>
-    <t>Ryan Rollins</t>
-  </si>
-  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -349,93 +310,93 @@
     <t>HOU</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>BKN</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
     <t>BOS</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Hamstring</t>
   </si>
   <si>
@@ -460,43 +421,46 @@
     <t>Thumb</t>
   </si>
   <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Leg</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Calf</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Lower Leg</t>
+  </si>
+  <si>
+    <t>Achilles</t>
+  </si>
+  <si>
     <t>Hip</t>
   </si>
   <si>
-    <t>Shoulder</t>
+    <t>Thigh</t>
+  </si>
+  <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>Ribs</t>
   </si>
   <si>
     <t>Illness</t>
-  </si>
-  <si>
-    <t>Groin</t>
-  </si>
-  <si>
-    <t>Calf</t>
-  </si>
-  <si>
-    <t>Suspension</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Lower Leg</t>
-  </si>
-  <si>
-    <t>Achilles</t>
-  </si>
-  <si>
-    <t>Thigh</t>
-  </si>
-  <si>
-    <t>Leg</t>
-  </si>
-  <si>
-    <t>Ribs</t>
   </si>
   <si>
     <t>Not Injury Related</t>
@@ -869,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -914,16 +878,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -931,16 +895,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -948,16 +912,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -965,16 +929,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -982,16 +946,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -999,16 +963,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1016,16 +980,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1033,16 +997,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1050,16 +1014,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1067,16 +1031,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1084,16 +1048,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1101,16 +1065,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1118,16 +1082,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1135,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1152,16 +1116,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1169,16 +1133,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1186,16 +1150,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1203,16 +1167,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1220,16 +1184,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1237,16 +1201,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1254,16 +1218,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1271,16 +1235,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
         <v>137</v>
       </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1288,16 +1252,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1305,16 +1269,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1322,16 +1286,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1339,16 +1303,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1356,16 +1320,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1373,16 +1337,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1390,16 +1354,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1407,16 +1371,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1424,16 +1388,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1441,16 +1405,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1458,16 +1422,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1475,16 +1439,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
         <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1492,16 +1456,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1509,16 +1473,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1526,16 +1490,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1543,16 +1507,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1560,16 +1524,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1577,16 +1541,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1597,13 +1561,13 @@
         <v>114</v>
       </c>
       <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
         <v>138</v>
       </c>
-      <c r="D43" t="s">
-        <v>140</v>
-      </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1611,16 +1575,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1628,16 +1592,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1645,16 +1609,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1662,16 +1626,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1679,16 +1643,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1696,16 +1660,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1713,16 +1677,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1730,16 +1694,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1747,16 +1711,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1764,16 +1728,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1781,16 +1745,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1798,16 +1762,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1815,16 +1779,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1832,16 +1796,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1849,16 +1813,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1866,16 +1830,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1883,16 +1847,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1900,16 +1864,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1917,16 +1881,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1934,16 +1898,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1951,16 +1915,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1968,16 +1932,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1985,16 +1949,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2002,16 +1966,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2019,16 +1983,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2036,16 +2000,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2053,16 +2017,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2070,16 +2034,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2087,16 +2051,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2104,16 +2068,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2121,16 +2085,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2138,16 +2102,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2155,16 +2119,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2172,16 +2136,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E77" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2189,16 +2153,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2206,16 +2170,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2223,16 +2187,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2240,16 +2204,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2257,16 +2221,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2274,16 +2238,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2291,16 +2255,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2308,16 +2272,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2325,16 +2289,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2342,16 +2306,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2359,16 +2323,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2376,16 +2340,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2393,16 +2357,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2410,16 +2374,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2427,237 +2391,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" t="s">
-        <v>161</v>
-      </c>
-      <c r="E93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" t="s">
-        <v>145</v>
-      </c>
-      <c r="E94" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s">
-        <v>128</v>
-      </c>
-      <c r="C96" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99" t="s">
-        <v>156</v>
-      </c>
-      <c r="E99" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101" t="s">
-        <v>137</v>
-      </c>
-      <c r="D101" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" t="s">
-        <v>141</v>
-      </c>
-      <c r="E104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" t="s">
-        <v>137</v>
-      </c>
-      <c r="D105" t="s">
-        <v>162</v>
-      </c>
-      <c r="E105" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/nba-injury-report.xlsx
+++ b/data/nba-injury-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="176">
   <si>
     <t>Player</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
+    <t>Grayson Allen</t>
   </si>
   <si>
     <t>Jose Alvarado</t>
@@ -79,9 +79,6 @@
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Malaki Branham</t>
-  </si>
-  <si>
     <t>Miles Bridges</t>
   </si>
   <si>
@@ -106,21 +103,42 @@
     <t>Wendell Carter</t>
   </si>
   <si>
+    <t>Alex Caruso</t>
+  </si>
+  <si>
     <t>Brandon Clarke</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>DeMar DeRozan</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
+    <t>Andre Drummond</t>
   </si>
   <si>
     <t>Kevin Durant</t>
   </si>
   <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Dante Exum</t>
   </si>
   <si>
     <t>Dorian Finney-Smith</t>
   </si>
   <si>
+    <t>Simone Fontecchio</t>
+  </si>
+  <si>
+    <t>Paul George</t>
+  </si>
+  <si>
     <t>Collin Gillespie</t>
   </si>
   <si>
@@ -142,9 +160,6 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
-    <t>Richaun Holmes</t>
-  </si>
-  <si>
     <t>DaRon Holmes</t>
   </si>
   <si>
@@ -154,9 +169,15 @@
     <t>Jalen Hood-Schifino</t>
   </si>
   <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
+    <t>Jaden Ivey</t>
+  </si>
+  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
@@ -184,12 +205,6 @@
     <t>Vit Krejci</t>
   </si>
   <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
-    <t>Zach LaVine</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
@@ -232,12 +247,12 @@
     <t>Aaron Nesmith</t>
   </si>
   <si>
-    <t>Jusuf Nurkic</t>
-  </si>
-  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
+    <t>Bobby Portis</t>
+  </si>
+  <si>
     <t>Kristaps Porzingis</t>
   </si>
   <si>
@@ -259,24 +274,15 @@
     <t>Ryan Rollins</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
-  </si>
-  <si>
-    <t>Adama Sanogo</t>
-  </si>
-  <si>
     <t>Day'Ron Sharpe</t>
   </si>
   <si>
+    <t>Ben Simmons</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Marcus Smart</t>
-  </si>
-  <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
     <t>Jeremy Sochan</t>
   </si>
   <si>
@@ -298,18 +304,12 @@
     <t>Nikola Topic</t>
   </si>
   <si>
-    <t>Obi Toppin</t>
-  </si>
-  <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
-    <t>Fred VanVleet</t>
-  </si>
-  <si>
     <t>Ja'Kobe Walter</t>
   </si>
   <si>
@@ -328,6 +328,9 @@
     <t>Jaylin Williams</t>
   </si>
   <si>
+    <t>Robert Williams</t>
+  </si>
+  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -349,36 +352,36 @@
     <t>HOU</t>
   </si>
   <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
     <t>CLE</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
     <t>WAS</t>
   </si>
   <si>
@@ -388,48 +391,51 @@
     <t>ATL</t>
   </si>
   <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>SA</t>
   </si>
   <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>MIL</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -445,85 +451,85 @@
     <t>Knee</t>
   </si>
   <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Finger</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>Orbital</t>
+  </si>
+  <si>
+    <t>Calf</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Thumb</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Toe</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Undisclosed</t>
+  </si>
+  <si>
+    <t>Illness</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Lower Leg</t>
+  </si>
+  <si>
+    <t>Achilles</t>
+  </si>
+  <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Thigh</t>
+  </si>
+  <si>
+    <t>Concussion</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Finger</t>
-  </si>
-  <si>
-    <t>Wrist</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>Orbital</t>
-  </si>
-  <si>
-    <t>Calf</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Ankle</t>
-  </si>
-  <si>
-    <t>Thumb</t>
-  </si>
-  <si>
-    <t>Shoulder</t>
-  </si>
-  <si>
-    <t>Toe</t>
-  </si>
-  <si>
-    <t>Eye</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Lower Leg</t>
-  </si>
-  <si>
-    <t>Illness</t>
-  </si>
-  <si>
-    <t>Achilles</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>Groin</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Nose</t>
-  </si>
-  <si>
-    <t>Thigh</t>
-  </si>
-  <si>
-    <t>Concussion</t>
-  </si>
-  <si>
-    <t>Elbow</t>
-  </si>
-  <si>
     <t>Ribs</t>
-  </si>
-  <si>
-    <t>Chest</t>
   </si>
   <si>
     <t>Not Injury Related</t>
@@ -893,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,16 +927,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -938,16 +944,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -955,16 +961,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
         <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -972,16 +978,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -989,16 +995,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1006,16 +1012,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1023,16 +1029,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1040,16 +1046,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1057,16 +1063,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1074,16 +1080,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1091,16 +1097,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1108,16 +1114,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1125,16 +1131,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1142,16 +1148,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1159,16 +1165,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1176,16 +1182,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1193,16 +1199,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1210,16 +1216,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1227,16 +1233,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1244,16 +1250,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1261,16 +1267,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1278,16 +1284,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1295,16 +1301,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1312,16 +1318,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1329,16 +1335,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1346,16 +1352,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1363,16 +1369,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1380,16 +1386,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1397,16 +1403,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1414,16 +1420,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1431,16 +1437,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1448,16 +1454,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
         <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1468,13 +1474,13 @@
         <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1482,16 +1488,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1499,16 +1505,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1516,16 +1522,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1533,13 +1539,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
         <v>173</v>
@@ -1550,16 +1556,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1567,10 +1573,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
         <v>160</v>
@@ -1584,16 +1590,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
         <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1601,16 +1607,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1618,16 +1624,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1635,16 +1641,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1652,16 +1658,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
         <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1669,16 +1675,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
         <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1686,16 +1692,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1703,16 +1709,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1720,16 +1726,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1740,13 +1746,13 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1754,16 +1760,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
         <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1771,16 +1777,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1788,16 +1794,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1805,16 +1811,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1822,16 +1828,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1839,16 +1845,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
         <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1856,16 +1862,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1873,16 +1879,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1890,16 +1896,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1907,16 +1913,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1924,16 +1930,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1941,16 +1947,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1958,16 +1964,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1975,16 +1981,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1992,16 +1998,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2009,16 +2015,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2026,16 +2032,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2043,16 +2049,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2060,16 +2066,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2080,13 +2086,13 @@
         <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2094,16 +2100,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2111,16 +2117,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2128,16 +2134,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2145,16 +2151,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2162,16 +2168,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2179,16 +2185,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2199,13 +2205,13 @@
         <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2213,16 +2219,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2230,16 +2236,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2247,16 +2253,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2264,16 +2270,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2281,16 +2287,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2298,16 +2304,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2315,16 +2321,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2332,16 +2338,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2349,16 +2355,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2366,16 +2372,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2383,16 +2389,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2400,16 +2406,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2417,13 +2423,13 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
         <v>173</v>
@@ -2434,16 +2440,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2451,16 +2457,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2468,16 +2474,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2485,16 +2491,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2502,16 +2508,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
         <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2519,16 +2525,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2536,16 +2542,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2556,13 +2562,13 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2570,16 +2576,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D99" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2587,16 +2593,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2604,16 +2610,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
         <v>140</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2621,13 +2627,13 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
         <v>173</v>
@@ -2638,16 +2644,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2655,16 +2661,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2672,16 +2678,33 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
         <v>163</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
